--- a/tests/data/output/一级测试用例-02001_result.xlsx
+++ b/tests/data/output/一级测试用例-02001_result.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>{"user_name":"阳东","id_card_no":"500111200106033716","phone":"18913151474"}</t>
+          <t>{"user_name":"厉晶","id_card_no":"220882196312250524","phone":"15008262745"}</t>
         </is>
       </c>
     </row>
@@ -528,7 +528,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>{"user_name":"毕想","id_card_no":"370682194005038497","phone":"18962175275"}</t>
+          <t>{"user_name":"席超","id_card_no":"152528195901222358","phone":"13157178344"}</t>
         </is>
       </c>
     </row>
@@ -580,7 +580,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>{"user_name":"宰秀荣","id_card_no":"210211195703050306","phone":"18690481755"}</t>
+          <t>{"user_name":"禹秀芳","id_card_no":"610430195705297550","phone":"18269001450"}</t>
         </is>
       </c>
     </row>

--- a/tests/data/output/一级测试用例-02001_result.xlsx
+++ b/tests/data/output/一级测试用例-02001_result.xlsx
@@ -424,7 +424,7 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>keyValue</t>
+          <t>key_value_main</t>
         </is>
       </c>
     </row>
@@ -476,7 +476,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>{"user_name":"厉晶","id_card_no":"220882196312250524","phone":"15008262745"}</t>
+          <t>{"user_name":"别成","id_card_no":"421381198407215821","phone":"18932272174"}</t>
         </is>
       </c>
     </row>
@@ -528,7 +528,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>{"user_name":"席超","id_card_no":"152528195901222358","phone":"13157178344"}</t>
+          <t>{"user_name":"苍彬","id_card_no":"510801199406030949","phone":"15385278456"}</t>
         </is>
       </c>
     </row>
@@ -580,7 +580,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>{"user_name":"禹秀芳","id_card_no":"610430195705297550","phone":"18269001450"}</t>
+          <t>{"user_name":"怀淑华","id_card_no":"43122119990409018X","phone":"18186532523"}</t>
         </is>
       </c>
     </row>

--- a/tests/data/output/一级测试用例-02001_result.xlsx
+++ b/tests/data/output/一级测试用例-02001_result.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>{"user_name":"别成","id_card_no":"421381198407215821","phone":"18932272174"}</t>
+          <t>{"user_name":"厉玉兰","id_card_no":"211400197603288976","phone":"18837753489"}</t>
         </is>
       </c>
     </row>
@@ -528,7 +528,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>{"user_name":"苍彬","id_card_no":"510801199406030949","phone":"15385278456"}</t>
+          <t>{"user_name":"单颖","id_card_no":"440606196311295804","phone":"18546374161"}</t>
         </is>
       </c>
     </row>
@@ -580,7 +580,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>{"user_name":"怀淑华","id_card_no":"43122119990409018X","phone":"18186532523"}</t>
+          <t>{"user_name":"却玉兰","id_card_no":"533122193610258759","phone":"15163597815"}</t>
         </is>
       </c>
     </row>

--- a/tests/data/output/一级测试用例-02001_result.xlsx
+++ b/tests/data/output/一级测试用例-02001_result.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>{"user_name":"厉玉兰","id_card_no":"211400197603288976","phone":"18837753489"}</t>
+          <t>{"user_name":"厉刚","id_card_no":"140927194510053398","phone":"14521229826"}</t>
         </is>
       </c>
     </row>
@@ -528,7 +528,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>{"user_name":"单颖","id_card_no":"440606196311295804","phone":"18546374161"}</t>
+          <t>{"user_name":"陆凤兰","id_card_no":"632700199102079118","phone":"14783816521"}</t>
         </is>
       </c>
     </row>
@@ -580,7 +580,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>{"user_name":"却玉兰","id_card_no":"533122193610258759","phone":"15163597815"}</t>
+          <t>{"user_name":"黄浩","id_card_no":"450903194607260416","phone":"18854194003"}</t>
         </is>
       </c>
     </row>

--- a/tests/data/output/一级测试用例-02001_result.xlsx
+++ b/tests/data/output/一级测试用例-02001_result.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>{"user_name":"厉刚","id_card_no":"140927194510053398","phone":"14521229826"}</t>
+          <t>{"user_name":"龚帆","id_card_no":"130404194704253108","phone":"15265483304"}</t>
         </is>
       </c>
     </row>
@@ -528,7 +528,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>{"user_name":"陆凤兰","id_card_no":"632700199102079118","phone":"14783816521"}</t>
+          <t>{"user_name":"包健","id_card_no":"130209197707131469","phone":"13064254848"}</t>
         </is>
       </c>
     </row>
@@ -580,7 +580,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>{"user_name":"黄浩","id_card_no":"450903194607260416","phone":"18854194003"}</t>
+          <t>{"user_name":"卫雷","id_card_no":"430181199711220056","phone":"18144833853"}</t>
         </is>
       </c>
     </row>

--- a/tests/data/output/一级测试用例-02001_result.xlsx
+++ b/tests/data/output/一级测试用例-02001_result.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>{"user_name":"龚帆","id_card_no":"130404194704253108","phone":"15265483304"}</t>
+          <t>{"user_name":"闻秀英","id_card_no":"211103197305082489","phone":"15340158866"}</t>
         </is>
       </c>
     </row>
@@ -528,7 +528,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>{"user_name":"包健","id_card_no":"130209197707131469","phone":"13064254848"}</t>
+          <t>{"user_name":"桂红霞","id_card_no":"230401197407107743","phone":"18676801926"}</t>
         </is>
       </c>
     </row>
@@ -580,7 +580,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>{"user_name":"卫雷","id_card_no":"430181199711220056","phone":"18144833853"}</t>
+          <t>{"user_name":"于玉梅","id_card_no":"410302199407259863","phone":"13758219871"}</t>
         </is>
       </c>
     </row>

--- a/tests/data/output/一级测试用例-02001_result.xlsx
+++ b/tests/data/output/一级测试用例-02001_result.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>{"user_name":"闻秀英","id_card_no":"211103197305082489","phone":"15340158866"}</t>
+          <t>{"user_name":"马坤","id_card_no":"371501195502240612","phone":"13422574118"}</t>
         </is>
       </c>
     </row>
@@ -528,7 +528,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>{"user_name":"桂红霞","id_card_no":"230401197407107743","phone":"18676801926"}</t>
+          <t>{"user_name":"海鹏","id_card_no":"14110019900624104X","phone":"14556875649"}</t>
         </is>
       </c>
     </row>
@@ -580,7 +580,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>{"user_name":"于玉梅","id_card_no":"410302199407259863","phone":"13758219871"}</t>
+          <t>{"user_name":"驷彬","id_card_no":"610403195907125491","phone":"18104505743"}</t>
         </is>
       </c>
     </row>

--- a/tests/data/output/一级测试用例-02001_result.xlsx
+++ b/tests/data/output/一级测试用例-02001_result.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>{"user_name":"马坤","id_card_no":"371501195502240612","phone":"13422574118"}</t>
+          <t>{"user_name":"怀波","id_card_no":"320282199503142491","phone":"18033121358"}</t>
         </is>
       </c>
     </row>
@@ -528,7 +528,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>{"user_name":"海鹏","id_card_no":"14110019900624104X","phone":"14556875649"}</t>
+          <t>{"user_name":"延洋","id_card_no":"150430196608129938","phone":"13833312655"}</t>
         </is>
       </c>
     </row>
@@ -580,7 +580,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>{"user_name":"驷彬","id_card_no":"610403195907125491","phone":"18104505743"}</t>
+          <t>{"user_name":"危鑫","id_card_no":"62112519691020320X","phone":"13178636038"}</t>
         </is>
       </c>
     </row>
